--- a/EasyFPGA-InformaçõesImportantesePinagem.xlsx
+++ b/EasyFPGA-InformaçõesImportantesePinagem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___Kit FPGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F4F8A7-E091-4AA6-8560-9C12D2D19B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFD783E-4221-4C7D-924C-7F0D436812E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="720" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
   <si>
     <t>DIG1</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>EasyFPGA 2.1 - Development board pin allocation table</t>
+  </si>
+  <si>
+    <t>acionado!</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1530,14 @@
       <c r="B5" s="5">
         <v>25</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
+      <c r="C6" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>124</v>
       </c>
@@ -1541,7 +1550,7 @@
         <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>125</v>
@@ -1555,7 +1564,7 @@
         <v>88</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>126</v>
@@ -1569,7 +1578,7 @@
         <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1578,6 +1587,9 @@
       </c>
       <c r="B10" s="13">
         <v>90</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>65</v>
